--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC69FCB-FD8E-4DC4-AFF8-6141BF4E7DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB14EA1-CBA0-4EF8-B3AB-21956E11A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>p_ttes_losses</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>p_ttes_eta</t>
+  </si>
+  <si>
+    <t>p_ttes_cop</t>
+  </si>
+  <si>
+    <t>p_ttes_c_charge_discharge</t>
   </si>
 </sst>
 </file>
@@ -376,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +407,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -416,11 +428,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -430,13 +447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +472,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -470,11 +493,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -484,13 +512,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +537,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -524,11 +558,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -538,13 +577,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +602,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -578,11 +623,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -592,13 +642,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,8 +667,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -632,11 +688,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -646,13 +707,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +732,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.99980000000000002</v>
       </c>
@@ -686,11 +753,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>200/0.0696666666666666</f>
-        <v>2870.8133971291895</v>
+        <v>2500</v>
       </c>
       <c r="F2">
         <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB14EA1-CBA0-4EF8-B3AB-21956E11A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E0175-CCFB-45D2-91FB-9496BDBF0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E0175-CCFB-45D2-91FB-9496BDBF0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D8BBD-4869-4A6A-AC3D-68AD0C7AC02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D8BBD-4869-4A6A-AC3D-68AD0C7AC02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B109026-B9E9-4487-919E-6F4887F492AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -499,7 +499,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -564,7 +564,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -629,7 +629,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -694,7 +694,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -759,7 +759,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>12.105</v>
       </c>
       <c r="H2">
         <v>5</v>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B109026-B9E9-4487-919E-6F4887F492AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6364FF-F795-4013-A1C2-497BB69C1BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2850</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2850</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2850</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2850</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2850</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,332 +763,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2500</v>
+        <v>2850</v>
       </c>
       <c r="F2">
         <v>0.01</v>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6364FF-F795-4013-A1C2-497BB69C1BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F953206-1139-404E-93A0-DDBB1D6680D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -384,341 +384,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2850</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2850</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2850</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2850</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2850</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>12.105</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2850</v>
+        <v>3135.0000000000005</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -772,7 +437,337 @@
         <v>12.105</v>
       </c>
       <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'2025'!E2*(1-0.25*0.2)</f>
+        <v>2978.2500000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'2025'!E2*(1-0.25*0.4)</f>
+        <v>2821.5000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'2025'!E2*(1-0.25*0.6)</f>
+        <v>2664.7500000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'2025'!E2*(1-0.25*0.8)</f>
+        <v>2508.0000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.95</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'2025'!E2*(1-0.25*1)</f>
+        <v>2351.2500000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>12.105</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/ttes.xlsx
+++ b/source_code/data/ttes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F953206-1139-404E-93A0-DDBB1D6680D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4908E8-D135-4909-BC13-6A81706C18F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -500,7 +500,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -566,7 +566,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -632,7 +632,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -698,7 +698,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -764,7 +764,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>12.105</v>
+        <v>7.0525000000000002</v>
       </c>
       <c r="H2">
         <v>5.5</v>
